--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="702">
   <si>
     <t>target</t>
   </si>
@@ -3124,7 +3124,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="80">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3350,6 +3350,107 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -4521,7 +4622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4730,52 +4831,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nexial-project\git\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8233E3C-55D7-46CC-9910-9B1492D8441F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4005CCC7-94AD-4BBC-93EA-A519DD9F4E5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9420" tabRatio="387" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9420" tabRatio="387" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="716">
   <si>
     <t>target</t>
   </si>
@@ -3127,17 +3127,105 @@
   ]
 }</t>
   </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>json.initial</t>
+  </si>
+  <si>
+    <t>{ "name": "Me and Myself", "data1": "", "data2": null }</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>{
+  "name": "Me and Myself",
+  "data1": ""
+}</t>
+  </si>
+  <si>
+    <t>[JSON(${json.initial}) =&gt; pack]</t>
+  </si>
+  <si>
+    <t>{"name":"Me and Myself","data1":""}</t>
+  </si>
+  <si>
+    <t>[JSON(${json.initial}) =&gt; compact(false)]</t>
+  </si>
+  <si>
+    <t>{"name":"Me and Myself"}</t>
+  </si>
+  <si>
+    <t>[JSON(${json.initial}) =&gt; compact(true)]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[JSON(${json.initial}) =&gt; addOrReplace( ,address: ["Aliso Viejo\, CA"\,"Universal City\, CA"]) compact(true) extract(address) list size]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Compact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(removeEmpty = false)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Compact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(removeEmpty = true)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3223,6 +3311,31 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3285,73 +3398,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3363,15 +3460,35 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3382,82 +3499,149 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -11306,24 +11490,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="27" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="26" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="25" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16623,24 +16807,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="18" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16660,10 +16844,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -21876,24 +22060,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:N300">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="13" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="12" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21913,10 +22097,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O304"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -21968,7 +22152,7 @@
       <c r="N1" s="42"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1">
+    <row r="2" spans="1:15" ht="49.5" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>537</v>
       </c>
@@ -22681,7 +22865,7 @@
       <c r="E29" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="59" t="s">
         <v>613</v>
       </c>
       <c r="G29" s="22"/>
@@ -22705,7 +22889,7 @@
       <c r="D30" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="59" t="s">
         <v>649</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -23426,90 +23610,142 @@
       <c r="N57" s="19"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="18"/>
-    </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="18"/>
-    </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="18"/>
-    </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="18"/>
-    </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="18"/>
+    <row r="58" spans="1:15" s="56" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A58" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="53"/>
+    </row>
+    <row r="59" spans="1:15" s="56" customFormat="1" ht="60">
+      <c r="A59" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>706</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>707</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="53"/>
+    </row>
+    <row r="60" spans="1:15" s="56" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A60" s="48"/>
+      <c r="B60" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>708</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="G60" s="58"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="53"/>
+    </row>
+    <row r="61" spans="1:15" s="56" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A61" s="48"/>
+      <c r="B61" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>711</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="53"/>
+    </row>
+    <row r="62" spans="1:15" s="56" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="53"/>
     </row>
     <row r="63" spans="1:15" ht="23.1" customHeight="1">
       <c r="A63" s="15"/>
@@ -27620,46 +27856,58 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:N7">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N104:N303">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="7" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="6" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N8:N103 N304:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+  <conditionalFormatting sqref="N1 N3:N4 N8:N57 N304:N1048576 N63:N103">
+    <cfRule type="beginsWith" dxfId="5" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="4" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N58:N62">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53 C57 C5:C6 C7:C8 C9:C10 C11:C47 C48:C49 C50:C52 C54:C55 C58:C303" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C55 C57:C303" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53 D57 D5:D6 D7:D8 D9:D10 D11:D47 D48:D49 D50:D52 D54:D55 D58:D303" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D55 D57:D303" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -29,7 +29,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="728">
   <si>
     <t>target</t>
   </si>
@@ -3238,13 +3238,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="35">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3468,8 +3474,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3641,8 +3748,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -4006,12 +4266,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4217,52 +4803,100 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="21" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="22" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="25" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4852,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5544,7 +6178,7 @@
         <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="L10" t="s">
         <v>208</v>
@@ -5588,7 +6222,7 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>727</v>
       </c>
       <c r="L11" t="s">
         <v>220</v>
@@ -5626,7 +6260,7 @@
         <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
         <v>231</v>
@@ -5664,7 +6298,7 @@
         <v>239</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -5699,7 +6333,7 @@
         <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L14" t="s">
         <v>251</v>
@@ -5734,7 +6368,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L15" t="s">
         <v>260</v>
@@ -5767,6 +6401,9 @@
       </c>
       <c r="H16" t="s">
         <v>268</v>
+      </c>
+      <c r="I16" t="s">
+        <v>250</v>
       </c>
       <c r="L16" t="s">
         <v>269</v>
@@ -6886,7 +7523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="75" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection activeCell="B18" pane="bottomLeft" sqref="B5:B18"/>
@@ -12229,7 +12866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="75" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection activeCell="B5" pane="bottomLeft" sqref="B5:B15"/>
@@ -17546,7 +18183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScaleNormal="75" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" topLeftCell="C1" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection activeCell="E6" pane="bottomLeft" sqref="E6"/>
@@ -22799,7 +23436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P304"/>
   <sheetViews>
-    <sheetView tabSelected="false" topLeftCell="D1" workbookViewId="0" zoomScaleNormal="75" zoomScale="100">
+    <sheetView tabSelected="false" topLeftCell="D1" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A25" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection activeCell="E29" pane="bottomLeft" sqref="E29"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -31,7 +31,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -49,21 +49,22 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="737">
   <si>
     <t>target</t>
   </si>
@@ -3244,13 +3245,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="51">
+  <fonts count="83">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3575,8 +3603,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3901,8 +4131,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -4592,12 +5128,664 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4851,52 +6039,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="38" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="53" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="54" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="57" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5484,7 +6768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5572,21 +6856,24 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5622,7 +6909,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>735</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -5667,21 +6954,24 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5753,21 +7043,24 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5836,21 +7129,24 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA4" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5910,21 +7206,24 @@
         <v>129</v>
       </c>
       <c r="Z5" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA5" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>724</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>133</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5954,7 +7253,7 @@
         <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>736</v>
       </c>
       <c r="L6" t="s">
         <v>144</v>
@@ -5981,21 +7280,24 @@
         <v>151</v>
       </c>
       <c r="Z6" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA6" t="s">
         <v>152</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>153</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>155</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>156</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6016,7 +7318,7 @@
         <v>161</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -6042,22 +7344,22 @@
       <c r="X7" t="s">
         <v>168</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>169</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>154</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>172</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>173</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6077,6 +7379,9 @@
       <c r="I8" t="s">
         <v>178</v>
       </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
       <c r="L8" t="s">
         <v>179</v>
       </c>
@@ -6098,22 +7403,22 @@
       <c r="X8" t="s">
         <v>185</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>186</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>189</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>190</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6154,16 +7459,16 @@
       <c r="X9" t="s">
         <v>202</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>204</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6198,16 +7503,16 @@
       <c r="U10" t="s">
         <v>213</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>214</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>725</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>215</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6239,13 +7544,13 @@
       <c r="S11" t="s">
         <v>224</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>225</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6277,13 +7582,13 @@
       <c r="S12" t="s">
         <v>235</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>236</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>237</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6312,13 +7617,13 @@
       <c r="S13" t="s">
         <v>717</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>245</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>246</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6347,13 +7652,13 @@
       <c r="S14" t="s">
         <v>244</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>255</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>256</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6382,13 +7687,13 @@
       <c r="S15" t="s">
         <v>254</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>718</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>265</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6417,13 +7722,13 @@
       <c r="S16" t="s">
         <v>263</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>264</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>274</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6446,13 +7751,13 @@
       <c r="S17" t="s">
         <v>272</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>273</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>281</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6472,10 +7777,10 @@
       <c r="N18" t="s">
         <v>286</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>280</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6492,10 +7797,10 @@
       <c r="L19" t="s">
         <v>291</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>287</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6512,10 +7817,10 @@
       <c r="L20" t="s">
         <v>296</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>292</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6532,10 +7837,10 @@
       <c r="L21" t="s">
         <v>301</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>297</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6552,10 +7857,10 @@
       <c r="L22" t="s">
         <v>306</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>302</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6572,10 +7877,10 @@
       <c r="L23" t="s">
         <v>311</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>307</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6592,10 +7897,10 @@
       <c r="L24" t="s">
         <v>316</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>312</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6612,16 +7917,16 @@
       <c r="L25" t="s">
         <v>321</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>317</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>728</v>
       </c>
       <c r="F26" t="s">
         <v>324</v>
@@ -6632,16 +7937,16 @@
       <c r="L26" t="s">
         <v>326</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>322</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>329</v>
@@ -6652,16 +7957,16 @@
       <c r="L27" t="s">
         <v>331</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>327</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>334</v>
@@ -6672,13 +7977,13 @@
       <c r="L28" t="s">
         <v>336</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>338</v>
@@ -6689,13 +7994,13 @@
       <c r="L29" t="s">
         <v>340</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>342</v>
@@ -6706,13 +8011,13 @@
       <c r="L30" t="s">
         <v>344</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>346</v>
@@ -6720,18 +8025,21 @@
       <c r="H31" t="s">
         <v>347</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
         <v>349</v>
       </c>
       <c r="H32" t="s">
         <v>350</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6742,7 +8050,7 @@
       <c r="H33" t="s">
         <v>353</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6753,7 +8061,7 @@
       <c r="H34" t="s">
         <v>356</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6764,7 +8072,7 @@
       <c r="H35" t="s">
         <v>359</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6775,7 +8083,7 @@
       <c r="H36" t="s">
         <v>362</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6786,7 +8094,7 @@
       <c r="H37" t="s">
         <v>365</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6797,7 +8105,7 @@
       <c r="H38" t="s">
         <v>368</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6808,7 +8116,7 @@
       <c r="H39" t="s">
         <v>371</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6816,7 +8124,7 @@
       <c r="H40" t="s">
         <v>373</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6824,7 +8132,7 @@
       <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6832,7 +8140,7 @@
       <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6840,7 +8148,7 @@
       <c r="H43" t="s">
         <v>379</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6848,7 +8156,7 @@
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6856,7 +8164,7 @@
       <c r="H45" t="s">
         <v>383</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6864,7 +8172,7 @@
       <c r="H46" t="s">
         <v>385</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6872,7 +8180,7 @@
       <c r="H47" t="s">
         <v>387</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6880,7 +8188,7 @@
       <c r="H48" t="s">
         <v>389</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6888,7 +8196,7 @@
       <c r="H49" t="s">
         <v>391</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6896,7 +8204,7 @@
       <c r="H50" t="s">
         <v>393</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6904,7 +8212,7 @@
       <c r="H51" t="s">
         <v>395</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6912,7 +8220,7 @@
       <c r="H52" t="s">
         <v>397</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6920,7 +8228,7 @@
       <c r="H53" t="s">
         <v>399</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6928,7 +8236,7 @@
       <c r="H54" t="s">
         <v>401</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6936,7 +8244,7 @@
       <c r="H55" t="s">
         <v>403</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6944,7 +8252,7 @@
       <c r="H56" t="s">
         <v>405</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6952,7 +8260,7 @@
       <c r="H57" t="s">
         <v>407</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6960,7 +8268,7 @@
       <c r="H58" t="s">
         <v>409</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6968,7 +8276,7 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6976,7 +8284,7 @@
       <c r="H60" t="s">
         <v>413</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6984,7 +8292,7 @@
       <c r="H61" t="s">
         <v>415</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6992,7 +8300,7 @@
       <c r="H62" t="s">
         <v>417</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7000,7 +8308,7 @@
       <c r="H63" t="s">
         <v>419</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7008,7 +8316,7 @@
       <c r="H64" t="s">
         <v>421</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7016,7 +8324,7 @@
       <c r="H65" t="s">
         <v>423</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7024,7 +8332,7 @@
       <c r="H66" t="s">
         <v>425</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7032,7 +8340,7 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7040,7 +8348,7 @@
       <c r="H68" t="s">
         <v>429</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7048,7 +8356,7 @@
       <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7056,7 +8364,7 @@
       <c r="H70" t="s">
         <v>433</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7064,7 +8372,7 @@
       <c r="H71" t="s">
         <v>435</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7072,7 +8380,7 @@
       <c r="H72" t="s">
         <v>437</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7080,7 +8388,7 @@
       <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7088,7 +8396,7 @@
       <c r="H74" t="s">
         <v>441</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7096,7 +8404,7 @@
       <c r="H75" t="s">
         <v>443</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7104,7 +8412,7 @@
       <c r="H76" t="s">
         <v>445</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7112,7 +8420,7 @@
       <c r="H77" t="s">
         <v>447</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7120,7 +8428,7 @@
       <c r="H78" t="s">
         <v>449</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7128,7 +8436,7 @@
       <c r="H79" t="s">
         <v>451</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7136,7 +8444,7 @@
       <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7144,7 +8452,7 @@
       <c r="H81" t="s">
         <v>455</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7152,7 +8460,7 @@
       <c r="H82" t="s">
         <v>457</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7160,7 +8468,7 @@
       <c r="H83" t="s">
         <v>459</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7168,7 +8476,7 @@
       <c r="H84" t="s">
         <v>461</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7176,7 +8484,7 @@
       <c r="H85" t="s">
         <v>463</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7184,7 +8492,7 @@
       <c r="H86" t="s">
         <v>465</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7192,7 +8500,7 @@
       <c r="H87" t="s">
         <v>467</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7200,7 +8508,7 @@
       <c r="H88" t="s">
         <v>469</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7208,7 +8516,7 @@
       <c r="H89" t="s">
         <v>471</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7216,7 +8524,7 @@
       <c r="H90" t="s">
         <v>473</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>697</v>
       </c>
     </row>
@@ -7224,7 +8532,7 @@
       <c r="H91" t="s">
         <v>475</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7232,7 +8540,7 @@
       <c r="H92" t="s">
         <v>477</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7240,7 +8548,7 @@
       <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7248,7 +8556,7 @@
       <c r="H94" t="s">
         <v>481</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7256,7 +8564,7 @@
       <c r="H95" t="s">
         <v>483</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7264,7 +8572,7 @@
       <c r="H96" t="s">
         <v>485</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7272,7 +8580,7 @@
       <c r="H97" t="s">
         <v>487</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>484</v>
       </c>
     </row>
@@ -7280,237 +8588,237 @@
       <c r="H98" t="s">
         <v>489</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -35,7 +35,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -43,7 +43,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -51,20 +51,21 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="747">
   <si>
     <t>target</t>
   </si>
@@ -3272,13 +3273,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="83">
+  <fonts count="99">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3805,8 +3836,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4437,8 +4569,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -5780,12 +6065,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6135,52 +6746,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="69" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6768,7 +7427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6856,7 +7515,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -6936,7 +7595,7 @@
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>739</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
@@ -6954,7 +7613,7 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
@@ -7028,7 +7687,7 @@
         <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>740</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -7043,7 +7702,7 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
@@ -7114,7 +7773,7 @@
         <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>104</v>
@@ -7129,7 +7788,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="AA4" t="s">
         <v>108</v>
@@ -7194,7 +7853,7 @@
         <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>127</v>
@@ -7204,9 +7863,6 @@
       </c>
       <c r="X5" t="s">
         <v>129</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>733</v>
       </c>
       <c r="AA5" t="s">
         <v>130</v>
@@ -7271,16 +7927,13 @@
         <v>148</v>
       </c>
       <c r="T6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>150</v>
       </c>
       <c r="X6" t="s">
         <v>151</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>734</v>
       </c>
       <c r="AA6" t="s">
         <v>152</v>
@@ -7336,7 +7989,7 @@
         <v>165</v>
       </c>
       <c r="T7" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="U7" t="s">
         <v>167</v>
@@ -7397,6 +8050,9 @@
       <c r="S8" t="s">
         <v>183</v>
       </c>
+      <c r="T8" t="s">
+        <v>149</v>
+      </c>
       <c r="U8" t="s">
         <v>184</v>
       </c>
@@ -7453,6 +8109,9 @@
       <c r="S9" t="s">
         <v>200</v>
       </c>
+      <c r="T9" t="s">
+        <v>166</v>
+      </c>
       <c r="U9" t="s">
         <v>201</v>
       </c>
@@ -7574,7 +8233,7 @@
         <v>232</v>
       </c>
       <c r="O12" t="s">
-        <v>233</v>
+        <v>738</v>
       </c>
       <c r="R12" t="s">
         <v>234</v>
@@ -7611,6 +8270,9 @@
       <c r="N13" t="s">
         <v>242</v>
       </c>
+      <c r="O13" t="s">
+        <v>233</v>
+      </c>
       <c r="R13" t="s">
         <v>243</v>
       </c>
@@ -7688,7 +8350,7 @@
         <v>254</v>
       </c>
       <c r="AA15" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="AD15" t="s">
         <v>265</v>
@@ -7723,7 +8385,7 @@
         <v>263</v>
       </c>
       <c r="AA16" t="s">
-        <v>264</v>
+        <v>718</v>
       </c>
       <c r="AD16" t="s">
         <v>274</v>
@@ -7752,7 +8414,7 @@
         <v>272</v>
       </c>
       <c r="AA17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AD17" t="s">
         <v>281</v>
@@ -7778,7 +8440,7 @@
         <v>286</v>
       </c>
       <c r="AA18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AF18" t="s">
         <v>288</v>
@@ -7798,7 +8460,7 @@
         <v>291</v>
       </c>
       <c r="AA19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="s">
         <v>293</v>
@@ -7818,7 +8480,7 @@
         <v>296</v>
       </c>
       <c r="AA20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AF20" t="s">
         <v>298</v>
@@ -7838,7 +8500,7 @@
         <v>301</v>
       </c>
       <c r="AA21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AF21" t="s">
         <v>303</v>
@@ -7858,7 +8520,7 @@
         <v>306</v>
       </c>
       <c r="AA22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF22" t="s">
         <v>308</v>
@@ -7878,7 +8540,7 @@
         <v>311</v>
       </c>
       <c r="AA23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF23" t="s">
         <v>313</v>
@@ -7898,7 +8560,7 @@
         <v>316</v>
       </c>
       <c r="AA24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF24" t="s">
         <v>318</v>
@@ -7918,7 +8580,7 @@
         <v>321</v>
       </c>
       <c r="AA25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF25" t="s">
         <v>323</v>
@@ -7926,7 +8588,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="F26" t="s">
         <v>324</v>
@@ -7938,7 +8600,7 @@
         <v>326</v>
       </c>
       <c r="AA26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AF26" t="s">
         <v>328</v>
@@ -7958,7 +8620,7 @@
         <v>331</v>
       </c>
       <c r="AA27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF27" t="s">
         <v>333</v>
@@ -7978,7 +8640,7 @@
         <v>336</v>
       </c>
       <c r="AA28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29">
@@ -7995,7 +8657,7 @@
         <v>340</v>
       </c>
       <c r="AA29" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30">
@@ -8012,7 +8674,7 @@
         <v>344</v>
       </c>
       <c r="AA30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31">
@@ -8026,7 +8688,7 @@
         <v>347</v>
       </c>
       <c r="AA31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32">
@@ -8040,7 +8702,7 @@
         <v>350</v>
       </c>
       <c r="AA32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33">
@@ -8051,7 +8713,7 @@
         <v>353</v>
       </c>
       <c r="AA33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
@@ -8062,7 +8724,7 @@
         <v>356</v>
       </c>
       <c r="AA34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
@@ -8073,7 +8735,7 @@
         <v>359</v>
       </c>
       <c r="AA35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
@@ -8084,7 +8746,7 @@
         <v>362</v>
       </c>
       <c r="AA36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37">
@@ -8095,7 +8757,7 @@
         <v>365</v>
       </c>
       <c r="AA37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
@@ -8106,7 +8768,7 @@
         <v>368</v>
       </c>
       <c r="AA38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
@@ -8117,7 +8779,7 @@
         <v>371</v>
       </c>
       <c r="AA39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
@@ -8125,7 +8787,7 @@
         <v>373</v>
       </c>
       <c r="AA40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
@@ -8133,7 +8795,7 @@
         <v>375</v>
       </c>
       <c r="AA41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -8141,7 +8803,7 @@
         <v>377</v>
       </c>
       <c r="AA42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -8149,7 +8811,7 @@
         <v>379</v>
       </c>
       <c r="AA43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -8157,7 +8819,7 @@
         <v>381</v>
       </c>
       <c r="AA44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -8165,7 +8827,7 @@
         <v>383</v>
       </c>
       <c r="AA45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -8173,7 +8835,7 @@
         <v>385</v>
       </c>
       <c r="AA46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
@@ -8181,7 +8843,7 @@
         <v>387</v>
       </c>
       <c r="AA47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -8189,7 +8851,7 @@
         <v>389</v>
       </c>
       <c r="AA48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
@@ -8197,7 +8859,7 @@
         <v>391</v>
       </c>
       <c r="AA49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
@@ -8205,7 +8867,7 @@
         <v>393</v>
       </c>
       <c r="AA50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
@@ -8213,7 +8875,7 @@
         <v>395</v>
       </c>
       <c r="AA51" t="s">
-        <v>394</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52">
@@ -8221,7 +8883,7 @@
         <v>397</v>
       </c>
       <c r="AA52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
@@ -8229,7 +8891,7 @@
         <v>399</v>
       </c>
       <c r="AA53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
@@ -8237,7 +8899,7 @@
         <v>401</v>
       </c>
       <c r="AA54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
@@ -8245,7 +8907,7 @@
         <v>403</v>
       </c>
       <c r="AA55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
@@ -8253,7 +8915,7 @@
         <v>405</v>
       </c>
       <c r="AA56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
@@ -8261,7 +8923,7 @@
         <v>407</v>
       </c>
       <c r="AA57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
@@ -8269,7 +8931,7 @@
         <v>409</v>
       </c>
       <c r="AA58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59">
@@ -8277,7 +8939,7 @@
         <v>411</v>
       </c>
       <c r="AA59" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
@@ -8285,7 +8947,7 @@
         <v>413</v>
       </c>
       <c r="AA60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
@@ -8293,7 +8955,7 @@
         <v>415</v>
       </c>
       <c r="AA61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62">
@@ -8301,7 +8963,7 @@
         <v>417</v>
       </c>
       <c r="AA62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -8309,7 +8971,7 @@
         <v>419</v>
       </c>
       <c r="AA63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
@@ -8317,7 +8979,7 @@
         <v>421</v>
       </c>
       <c r="AA64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
@@ -8325,7 +8987,7 @@
         <v>423</v>
       </c>
       <c r="AA65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
@@ -8333,7 +8995,7 @@
         <v>425</v>
       </c>
       <c r="AA66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
@@ -8341,7 +9003,7 @@
         <v>427</v>
       </c>
       <c r="AA67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68">
@@ -8349,7 +9011,7 @@
         <v>429</v>
       </c>
       <c r="AA68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69">
@@ -8357,7 +9019,7 @@
         <v>431</v>
       </c>
       <c r="AA69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70">
@@ -8365,7 +9027,7 @@
         <v>433</v>
       </c>
       <c r="AA70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
@@ -8373,7 +9035,7 @@
         <v>435</v>
       </c>
       <c r="AA71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72">
@@ -8381,7 +9043,7 @@
         <v>437</v>
       </c>
       <c r="AA72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
@@ -8389,7 +9051,7 @@
         <v>439</v>
       </c>
       <c r="AA73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -8397,7 +9059,7 @@
         <v>441</v>
       </c>
       <c r="AA74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
@@ -8405,7 +9067,7 @@
         <v>443</v>
       </c>
       <c r="AA75" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
@@ -8413,7 +9075,7 @@
         <v>445</v>
       </c>
       <c r="AA76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77">
@@ -8421,7 +9083,7 @@
         <v>447</v>
       </c>
       <c r="AA77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78">
@@ -8429,7 +9091,7 @@
         <v>449</v>
       </c>
       <c r="AA78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
@@ -8437,7 +9099,7 @@
         <v>451</v>
       </c>
       <c r="AA79" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -8445,7 +9107,7 @@
         <v>453</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -8453,7 +9115,7 @@
         <v>455</v>
       </c>
       <c r="AA81" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -8461,7 +9123,7 @@
         <v>457</v>
       </c>
       <c r="AA82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -8469,7 +9131,7 @@
         <v>459</v>
       </c>
       <c r="AA83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -8477,7 +9139,7 @@
         <v>461</v>
       </c>
       <c r="AA84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
@@ -8485,7 +9147,7 @@
         <v>463</v>
       </c>
       <c r="AA85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86">
@@ -8493,7 +9155,7 @@
         <v>465</v>
       </c>
       <c r="AA86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -8501,7 +9163,7 @@
         <v>467</v>
       </c>
       <c r="AA87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -8509,7 +9171,7 @@
         <v>469</v>
       </c>
       <c r="AA88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -8517,7 +9179,7 @@
         <v>471</v>
       </c>
       <c r="AA89" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -8525,7 +9187,7 @@
         <v>473</v>
       </c>
       <c r="AA90" t="s">
-        <v>697</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91">
@@ -8533,7 +9195,7 @@
         <v>475</v>
       </c>
       <c r="AA91" t="s">
-        <v>472</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92">
@@ -8541,7 +9203,7 @@
         <v>477</v>
       </c>
       <c r="AA92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
@@ -8549,7 +9211,7 @@
         <v>479</v>
       </c>
       <c r="AA93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94">
@@ -8557,7 +9219,7 @@
         <v>481</v>
       </c>
       <c r="AA94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95">
@@ -8565,7 +9227,7 @@
         <v>483</v>
       </c>
       <c r="AA95" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96">
@@ -8573,7 +9235,7 @@
         <v>485</v>
       </c>
       <c r="AA96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97">
@@ -8581,7 +9243,7 @@
         <v>487</v>
       </c>
       <c r="AA97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98">
@@ -8589,236 +9251,241 @@
         <v>489</v>
       </c>
       <c r="AA98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>719</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>499</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>720</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>508</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>721</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>510</v>
+        <v>721</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>722</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>516</v>
+        <v>722</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>520</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>723</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>527</v>
+        <v>723</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC86144-5CFD-43CF-9022-3CB24B7A0D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6CC86144-5CFD-43CF-9022-3CB24B7A0D29}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="387" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="387" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Add or Replace-ADD" sheetId="5" r:id="rId2"/>
-    <sheet name="Add or Replace-REPLACE" sheetId="6" r:id="rId3"/>
-    <sheet name="Add or Replace-NONE" sheetId="2" r:id="rId4"/>
-    <sheet name="Other Commands" sheetId="7" r:id="rId5"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Add or Replace-ADD" r:id="rId2" sheetId="5"/>
+    <sheet name="Add or Replace-REPLACE" r:id="rId3" sheetId="6"/>
+    <sheet name="Add or Replace-NONE" r:id="rId4" sheetId="2"/>
+    <sheet name="Other Commands" r:id="rId5" sheetId="7"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,22 +50,22 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="789">
   <si>
     <t>target</t>
   </si>
@@ -3270,12 +3270,172 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="0"/>
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3398,8 +3558,222 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3416,6 +3790,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3459,219 +4105,321 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="94">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="25" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -3975,7 +4723,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -4000,10 +4748,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4167,21 +4915,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4198,7 +4946,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4252,19 +5000,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4344,25 +5092,28 @@
         <v>726</v>
       </c>
       <c r="AA1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4442,25 +5193,28 @@
         <v>730</v>
       </c>
       <c r="AA2" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4531,25 +5285,28 @@
         <v>731</v>
       </c>
       <c r="AA3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB3" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4617,25 +5374,28 @@
         <v>732</v>
       </c>
       <c r="AA4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB4" t="s">
         <v>107</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4691,25 +5451,28 @@
         <v>128</v>
       </c>
       <c r="AA5" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB5" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>720</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4762,25 +5525,28 @@
         <v>150</v>
       </c>
       <c r="AA6" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB6" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>131</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>155</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4824,25 +5590,28 @@
         <v>167</v>
       </c>
       <c r="AA7" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB7" t="s">
         <v>168</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>169</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>153</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4886,25 +5655,28 @@
         <v>184</v>
       </c>
       <c r="AA8" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB8" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4945,19 +5717,22 @@
         <v>201</v>
       </c>
       <c r="AA9" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB9" t="s">
         <v>202</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>203</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4989,19 +5764,22 @@
         <v>212</v>
       </c>
       <c r="AA10" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB10" t="s">
         <v>213</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>721</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>214</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5027,19 +5805,22 @@
         <v>222</v>
       </c>
       <c r="S11" t="s">
-        <v>223</v>
+        <v>743</v>
       </c>
       <c r="AA11" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB11" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>225</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5065,19 +5846,22 @@
         <v>233</v>
       </c>
       <c r="S12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AA12" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB12" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>236</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5103,19 +5887,22 @@
         <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>713</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB13" t="s">
         <v>244</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>245</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5138,19 +5925,22 @@
         <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>243</v>
+        <v>713</v>
       </c>
       <c r="AA14" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB14" t="s">
         <v>254</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>255</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5173,19 +5963,22 @@
         <v>261</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AA15" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB15" t="s">
         <v>733</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>264</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5208,19 +6001,22 @@
         <v>270</v>
       </c>
       <c r="S16" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA16" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB16" t="s">
         <v>714</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>273</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5237,19 +6033,22 @@
         <v>278</v>
       </c>
       <c r="S17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA17" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB17" t="s">
         <v>263</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>280</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5265,19 +6064,25 @@
       <c r="N18" t="s">
         <v>285</v>
       </c>
+      <c r="S18" t="s">
+        <v>271</v>
+      </c>
       <c r="AA18" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB18" t="s">
         <v>272</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>737</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -5286,18 +6091,21 @@
         <v>290</v>
       </c>
       <c r="AA19" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB19" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>738</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -5306,18 +6114,21 @@
         <v>295</v>
       </c>
       <c r="AA20" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB20" t="s">
         <v>286</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>298</v>
+        <v>739</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -5326,18 +6137,21 @@
         <v>300</v>
       </c>
       <c r="AA21" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB21" t="s">
         <v>291</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -5346,18 +6160,21 @@
         <v>305</v>
       </c>
       <c r="AA22" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB22" t="s">
         <v>296</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -5366,18 +6183,21 @@
         <v>310</v>
       </c>
       <c r="AA23" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB23" t="s">
         <v>301</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -5386,18 +6206,21 @@
         <v>315</v>
       </c>
       <c r="AA24" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB24" t="s">
         <v>306</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>740</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -5406,948 +6229,1041 @@
         <v>320</v>
       </c>
       <c r="AA25" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB25" t="s">
         <v>311</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26">
       <c r="A26" t="s">
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>325</v>
+        <v>742</v>
       </c>
       <c r="AA26" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB26" t="s">
         <v>316</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>736</v>
       </c>
       <c r="F27" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA27" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB27" t="s">
         <v>321</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H28" t="s">
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA28" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB28" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA29" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
         <v>342</v>
       </c>
       <c r="L30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA30" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
         <v>346</v>
       </c>
+      <c r="L31" t="s">
+        <v>343</v>
+      </c>
       <c r="AA31" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H32" t="s">
         <v>349</v>
       </c>
       <c r="AA32" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB32" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="6:27">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
         <v>352</v>
       </c>
       <c r="AA33" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB33" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="6:27">
+    <row r="34">
       <c r="F34" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H34" t="s">
         <v>355</v>
       </c>
       <c r="AA34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB34" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="6:27">
+    <row r="35">
       <c r="F35" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
         <v>358</v>
       </c>
       <c r="AA35" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB35" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="6:27">
+    <row r="36">
       <c r="F36" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H36" t="s">
         <v>361</v>
       </c>
       <c r="AA36" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB36" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="6:27">
+    <row r="37">
       <c r="F37" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H37" t="s">
         <v>364</v>
       </c>
       <c r="AA37" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB37" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="6:27">
+    <row r="38">
       <c r="F38" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H38" t="s">
         <v>367</v>
       </c>
       <c r="AA38" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="6:27">
+    <row r="39">
       <c r="F39" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H39" t="s">
         <v>370</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="6:27">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
       <c r="H40" t="s">
         <v>372</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="6:27">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
       <c r="H41" t="s">
         <v>374</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="6:27">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
       <c r="H42" t="s">
         <v>376</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="6:27">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
       <c r="H43" t="s">
         <v>378</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="6:27">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>741</v>
+      </c>
       <c r="H44" t="s">
         <v>380</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="6:27">
+    <row r="45">
       <c r="H45" t="s">
         <v>382</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="6:27">
+    <row r="46">
       <c r="H46" t="s">
         <v>384</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="6:27">
+    <row r="47">
       <c r="H47" t="s">
         <v>386</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="6:27">
+    <row r="48">
       <c r="H48" t="s">
         <v>388</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="8:27">
+    <row r="49">
       <c r="H49" t="s">
         <v>390</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="8:27">
+    <row r="50">
       <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="8:27">
+    <row r="51">
       <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="52" spans="8:27">
+    <row r="52">
       <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="8:27">
+    <row r="53">
       <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="8:27">
+    <row r="54">
       <c r="H54" t="s">
         <v>399</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="8:27">
+    <row r="55">
       <c r="H55" t="s">
         <v>401</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="56" spans="8:27">
+    <row r="56">
       <c r="H56" t="s">
         <v>403</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="8:27">
+    <row r="57">
       <c r="H57" t="s">
         <v>405</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="8:27">
+    <row r="58">
       <c r="H58" t="s">
         <v>407</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="59" spans="8:27">
+    <row r="59">
       <c r="H59" t="s">
         <v>409</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="8:27">
+    <row r="60">
       <c r="H60" t="s">
         <v>411</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="8:27">
+    <row r="61">
       <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="8:27">
+    <row r="62">
       <c r="H62" t="s">
         <v>415</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="8:27">
+    <row r="63">
       <c r="H63" t="s">
         <v>417</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="8:27">
+    <row r="64">
       <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="8:27">
+    <row r="65">
       <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="8:27">
+    <row r="66">
       <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="8:27">
+    <row r="67">
       <c r="H67" t="s">
         <v>425</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="8:27">
+    <row r="68">
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="8:27">
+    <row r="69">
       <c r="H69" t="s">
         <v>429</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="8:27">
+    <row r="70">
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="71" spans="8:27">
+    <row r="71">
       <c r="H71" t="s">
         <v>433</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="8:27">
+    <row r="72">
       <c r="H72" t="s">
         <v>435</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="8:27">
+    <row r="73">
       <c r="H73" t="s">
         <v>437</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="74" spans="8:27">
+    <row r="74">
       <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="8:27">
+    <row r="75">
       <c r="H75" t="s">
         <v>441</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="8:27">
+    <row r="76">
       <c r="H76" t="s">
         <v>443</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="8:27">
+    <row r="77">
       <c r="H77" t="s">
         <v>445</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="8:27">
+    <row r="78">
       <c r="H78" t="s">
         <v>447</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="8:27">
+    <row r="79">
       <c r="H79" t="s">
         <v>449</v>
       </c>
-      <c r="AA79" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27">
+      <c r="AB79" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>451</v>
       </c>
-      <c r="AA80" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27">
+      <c r="AB80" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>453</v>
       </c>
-      <c r="AA81" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27">
+      <c r="AB81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>455</v>
       </c>
-      <c r="AA82" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27">
+      <c r="AB82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>457</v>
       </c>
-      <c r="AA83" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27">
+      <c r="AB83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>459</v>
       </c>
-      <c r="AA84" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27">
+      <c r="AB84" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>461</v>
       </c>
-      <c r="AA85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27">
+      <c r="AB85" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>463</v>
       </c>
-      <c r="AA86" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27">
+      <c r="AB86" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>465</v>
       </c>
-      <c r="AA87" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27">
+      <c r="AB87" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>467</v>
       </c>
-      <c r="AA88" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27">
+      <c r="AB88" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>469</v>
       </c>
-      <c r="AA89" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27">
+      <c r="AB89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>471</v>
       </c>
-      <c r="AA90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27">
+      <c r="AB90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>473</v>
       </c>
-      <c r="AA91" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27">
+      <c r="AB91" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="AA92" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27">
+      <c r="AB92" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="AA93" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27">
+      <c r="AB93" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>479</v>
       </c>
-      <c r="AA94" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27">
+      <c r="AB94" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>481</v>
       </c>
-      <c r="AA95" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27">
+      <c r="AB95" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>483</v>
       </c>
-      <c r="AA96" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27">
+      <c r="AB96" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>485</v>
       </c>
-      <c r="AA97" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27">
+      <c r="AB97" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>487</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="8:27">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="100" spans="8:27">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="8:27">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="102" spans="8:27">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="8:27">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="104" spans="8:27">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="8:27">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="106" spans="8:27">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="107" spans="8:27">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="108" spans="8:27">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="8:27">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="110" spans="8:27">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="111" spans="8:27">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="112" spans="8:27">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
-      <c r="AA113" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="119" spans="27:27">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="120" spans="27:27">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="122" spans="27:27">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
-      <c r="AA141" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>526</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>788</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="85.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="8" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="11" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="10" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="41.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="31.5" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="7" width="85.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="8" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="10" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="10" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="52" t="s">
         <v>527</v>
       </c>
@@ -6378,7 +7294,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="56" t="s">
         <v>534</v>
       </c>
@@ -6399,7 +7315,7 @@
       <c r="N2" s="59"/>
       <c r="O2" s="59"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -6416,7 +7332,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="20" t="s">
         <v>536</v>
       </c>
@@ -6461,7 +7377,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>549</v>
       </c>
@@ -6488,7 +7404,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>552</v>
@@ -6515,7 +7431,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="24" t="s">
@@ -6540,7 +7456,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>552</v>
@@ -6567,7 +7483,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="24" t="s">
@@ -6592,7 +7508,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>558</v>
@@ -6619,7 +7535,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="35" t="s">
@@ -6644,7 +7560,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1">
+    <row customHeight="1" ht="39" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>562</v>
@@ -6671,7 +7587,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="24" t="s">
@@ -6696,7 +7612,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="33.950000000000003" customHeight="1">
+    <row customHeight="1" ht="33.950000000000003" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>566</v>
@@ -6723,7 +7639,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="60">
+    <row ht="60" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="24" t="s">
@@ -6748,7 +7664,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="42" customHeight="1">
+    <row customHeight="1" ht="42" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>570</v>
@@ -6775,7 +7691,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17"/>
       <c r="C17" s="24" t="s">
@@ -6800,7 +7716,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="39" customHeight="1">
+    <row customHeight="1" ht="39" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
         <v>574</v>
@@ -6827,7 +7743,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
@@ -6842,7 +7758,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
@@ -6859,7 +7775,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
@@ -6876,7 +7792,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
@@ -6892,7 +7808,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
@@ -6909,7 +7825,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
@@ -6926,7 +7842,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
@@ -6943,7 +7859,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
@@ -6960,7 +7876,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="21"/>
@@ -6977,7 +7893,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="30"/>
       <c r="C28" s="21"/>
@@ -6994,7 +7910,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="21"/>
@@ -7011,7 +7927,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="21"/>
@@ -7028,7 +7944,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="21"/>
@@ -7045,7 +7961,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="21"/>
@@ -7062,7 +7978,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="21"/>
@@ -7078,7 +7994,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="21"/>
@@ -7095,7 +8011,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="21"/>
@@ -7112,7 +8028,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="21"/>
@@ -7129,7 +8045,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="21"/>
@@ -7146,7 +8062,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="21"/>
@@ -7163,7 +8079,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="21"/>
@@ -7180,7 +8096,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="21"/>
@@ -7197,7 +8113,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="21"/>
@@ -7214,7 +8130,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="21"/>
@@ -7231,7 +8147,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="21"/>
@@ -7248,7 +8164,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="21"/>
@@ -7265,7 +8181,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="21"/>
@@ -7282,7 +8198,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="21"/>
@@ -7299,7 +8215,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="21"/>
@@ -7316,7 +8232,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="21"/>
@@ -7333,7 +8249,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="21"/>
@@ -7350,7 +8266,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="21"/>
@@ -7368,7 +8284,7 @@
       <c r="O50" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7376,56 +8292,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="26" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="26" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="25" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="24" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8 C9:C10 C13:C14 C15:C18 C19:C50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C7:C8 C9:C10 C13:C14 C15:C18 C19:C50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D10 D13:D50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D10 D13:D50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="85.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="8" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="11" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="10" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="41.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="31.5" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="7" width="85.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="8" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="10" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="10" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="52" t="s">
         <v>527</v>
       </c>
@@ -7456,7 +8372,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="56" t="s">
         <v>534</v>
       </c>
@@ -7477,7 +8393,7 @@
       <c r="N2" s="59"/>
       <c r="O2" s="59"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -7494,7 +8410,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="20" t="s">
         <v>536</v>
       </c>
@@ -7539,7 +8455,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>549</v>
       </c>
@@ -7566,7 +8482,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="44.1" customHeight="1">
+    <row customHeight="1" ht="44.1" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>578</v>
@@ -7593,7 +8509,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>581</v>
@@ -7620,7 +8536,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="33.950000000000003" customHeight="1">
+    <row customHeight="1" ht="33.950000000000003" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="24" t="s">
@@ -7645,7 +8561,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="26.1" customHeight="1">
+    <row customHeight="1" ht="26.1" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>584</v>
@@ -7672,7 +8588,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="24" t="s">
@@ -7697,7 +8613,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="48.95" customHeight="1">
+    <row customHeight="1" ht="48.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>588</v>
@@ -7724,7 +8640,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="24" t="s">
@@ -7749,7 +8665,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>592</v>
@@ -7776,7 +8692,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="45.95" customHeight="1">
+    <row customHeight="1" ht="45.95" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="24" t="s">
@@ -7801,7 +8717,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>595</v>
@@ -7828,7 +8744,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
@@ -7845,7 +8761,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="21"/>
@@ -7862,7 +8778,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="21"/>
@@ -7879,7 +8795,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
@@ -7896,7 +8812,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
@@ -7913,7 +8829,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
@@ -7930,7 +8846,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
@@ -7947,7 +8863,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
@@ -7964,7 +8880,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
@@ -7981,7 +8897,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
@@ -7998,7 +8914,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
@@ -8015,7 +8931,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="21"/>
@@ -8032,7 +8948,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="30"/>
       <c r="C28" s="21"/>
@@ -8049,7 +8965,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="21"/>
@@ -8066,7 +8982,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="21"/>
@@ -8083,7 +8999,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="21"/>
@@ -8100,7 +9016,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="21"/>
@@ -8117,7 +9033,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="21"/>
@@ -8134,7 +9050,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="21"/>
@@ -8151,7 +9067,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="21"/>
@@ -8168,7 +9084,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="21"/>
@@ -8185,7 +9101,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="21"/>
@@ -8202,7 +9118,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="21"/>
@@ -8219,7 +9135,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="21"/>
@@ -8236,7 +9152,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="21"/>
@@ -8253,7 +9169,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="21"/>
@@ -8270,7 +9186,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="21"/>
@@ -8287,7 +9203,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="21"/>
@@ -8304,7 +9220,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="21"/>
@@ -8321,7 +9237,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="21"/>
@@ -8338,7 +9254,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="21"/>
@@ -8355,7 +9271,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="21"/>
@@ -8372,7 +9288,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="21"/>
@@ -8389,7 +9305,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="21"/>
@@ -8406,7 +9322,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="21"/>
@@ -8424,7 +9340,7 @@
       <c r="O50" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8432,56 +9348,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="20" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="19" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="18" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6 C7:C15 C16:C50" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C6 C7:C15 C16:C50" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="85.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="8" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="11" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="10" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="41.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="31.5" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="7" width="85.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="8" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="10" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="10" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="52" t="s">
         <v>527</v>
       </c>
@@ -8512,7 +9428,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2" spans="1:15">
       <c r="A2" s="56" t="s">
         <v>534</v>
       </c>
@@ -8533,7 +9449,7 @@
       <c r="N2" s="59"/>
       <c r="O2" s="59"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -8550,7 +9466,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="20" t="s">
         <v>536</v>
       </c>
@@ -8595,7 +9511,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60">
+    <row ht="60" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>549</v>
       </c>
@@ -8622,7 +9538,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="300">
+    <row ht="300" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="28" t="s">
         <v>599</v>
@@ -8649,7 +9565,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="28"/>
       <c r="C7" s="24" t="s">
@@ -8674,7 +9590,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="75">
+    <row ht="75" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="28" t="s">
         <v>600</v>
@@ -8701,7 +9617,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="21"/>
@@ -8718,7 +9634,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="21"/>
@@ -8735,7 +9651,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="21"/>
@@ -8752,7 +9668,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="21"/>
@@ -8769,7 +9685,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="21"/>
@@ -8786,7 +9702,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
@@ -8803,7 +9719,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21"/>
@@ -8820,7 +9736,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
@@ -8837,7 +9753,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="21"/>
@@ -8854,7 +9770,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="21"/>
@@ -8871,7 +9787,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
@@ -8888,7 +9804,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
@@ -8905,7 +9821,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
@@ -8922,7 +9838,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
@@ -8939,7 +9855,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
@@ -8956,7 +9872,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
@@ -8973,7 +9889,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
@@ -8990,7 +9906,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
@@ -9007,7 +9923,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="21"/>
@@ -9024,7 +9940,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="30"/>
       <c r="C28" s="21"/>
@@ -9041,7 +9957,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="21"/>
@@ -9058,7 +9974,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="21"/>
@@ -9075,7 +9991,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="21"/>
@@ -9092,7 +10008,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="21"/>
@@ -9109,7 +10025,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="21"/>
@@ -9126,7 +10042,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="21"/>
@@ -9143,7 +10059,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="21"/>
@@ -9160,7 +10076,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="21"/>
@@ -9177,7 +10093,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="21"/>
@@ -9194,7 +10110,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="21"/>
@@ -9211,7 +10127,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="21"/>
@@ -9228,7 +10144,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="21"/>
@@ -9245,7 +10161,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="21"/>
@@ -9262,7 +10178,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="21"/>
@@ -9279,7 +10195,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="21"/>
@@ -9296,7 +10212,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="21"/>
@@ -9313,7 +10229,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="21"/>
@@ -9330,7 +10246,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="21"/>
@@ -9347,7 +10263,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="21"/>
@@ -9364,7 +10280,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="21"/>
@@ -9381,7 +10297,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="21"/>
@@ -9398,7 +10314,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="21"/>
@@ -9416,7 +10332,7 @@
       <c r="O50" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9424,68 +10340,68 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:N50">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="75">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.25" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="81.125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="85.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="8" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="11" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="10" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="29.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="31.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="81.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="85.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="8" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="10" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="10" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="52" t="s">
         <v>527</v>
       </c>
@@ -9516,7 +10432,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="49.5" customHeight="1">
+    <row customHeight="1" ht="49.5" r="2" spans="1:15">
       <c r="A2" s="56" t="s">
         <v>534</v>
       </c>
@@ -9537,7 +10453,7 @@
       <c r="N2" s="59"/>
       <c r="O2" s="59"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -9554,7 +10470,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="20" t="s">
         <v>536</v>
       </c>
@@ -9599,7 +10515,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="35.1" customHeight="1">
+    <row customHeight="1" ht="35.1" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>549</v>
       </c>
@@ -9628,7 +10544,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="38.1" customHeight="1">
+    <row customHeight="1" ht="38.1" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="21" t="s">
@@ -9653,7 +10569,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="23.1" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.1" r="7" s="3" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>606</v>
@@ -9680,7 +10596,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="27"/>
       <c r="C8" s="24" t="s">
@@ -9705,7 +10621,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="45.95" customHeight="1">
+    <row customHeight="1" ht="45.95" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="28" t="s">
         <v>609</v>
@@ -9732,7 +10648,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="28"/>
       <c r="C10" s="24" t="s">
@@ -9757,7 +10673,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="27.95" customHeight="1">
+    <row customHeight="1" ht="27.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="28"/>
       <c r="C11" s="21" t="s">
@@ -9782,7 +10698,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="32.1" customHeight="1">
+    <row customHeight="1" ht="32.1" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>615</v>
@@ -9809,7 +10725,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="21" t="s">
@@ -9834,7 +10750,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>618</v>
@@ -9861,7 +10777,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21" t="s">
@@ -9886,7 +10802,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="21" t="s">
@@ -9911,7 +10827,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="21" t="s">
@@ -9936,7 +10852,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="45" customHeight="1">
+    <row customHeight="1" ht="45" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="21" t="s">
@@ -9961,7 +10877,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="30.95" customHeight="1">
+    <row customHeight="1" ht="30.95" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>627</v>
@@ -9988,7 +10904,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
@@ -10013,7 +10929,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="21" t="s">
@@ -10038,7 +10954,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="21" t="s">
@@ -10063,7 +10979,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
@@ -10088,7 +11004,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="21" t="s">
@@ -10113,7 +11029,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>601</v>
@@ -10140,7 +11056,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="21" t="s">
@@ -10165,7 +11081,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="21" t="s">
@@ -10190,7 +11106,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>642</v>
@@ -10217,7 +11133,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="21" t="s">
@@ -10242,7 +11158,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>645</v>
@@ -10269,7 +11185,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="30"/>
       <c r="C31" s="21" t="s">
@@ -10294,7 +11210,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>649</v>
@@ -10321,7 +11237,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="21" t="s">
@@ -10346,7 +11262,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
         <v>652</v>
@@ -10373,7 +11289,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="21" t="s">
@@ -10398,7 +11314,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>655</v>
@@ -10425,7 +11341,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="21" t="s">
@@ -10450,7 +11366,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="21" t="s">
@@ -10475,7 +11391,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
         <v>661</v>
@@ -10502,7 +11418,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="21" t="s">
@@ -10527,7 +11443,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="75">
+    <row ht="75" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="21" t="s">
@@ -10552,7 +11468,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="21" t="s">
@@ -10577,7 +11493,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>667</v>
@@ -10604,7 +11520,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="21" t="s">
@@ -10629,7 +11545,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>670</v>
@@ -10658,7 +11574,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="21" t="s">
@@ -10683,7 +11599,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="21" t="s">
@@ -10708,7 +11624,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
         <v>674</v>
@@ -10735,7 +11651,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>667</v>
@@ -10762,7 +11678,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
         <v>601</v>
@@ -10789,7 +11705,7 @@
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row customHeight="1" ht="20.100000000000001" r="51" spans="1:15">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="21" t="s">
@@ -10814,7 +11730,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
         <v>680</v>
@@ -10841,7 +11757,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
         <v>683</v>
@@ -10868,7 +11784,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>686</v>
@@ -10895,7 +11811,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
         <v>689</v>
@@ -10922,7 +11838,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
         <v>691</v>
@@ -10949,7 +11865,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="21" t="s">
@@ -10974,7 +11890,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" s="48" customFormat="1" ht="23.1" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.1" r="58" s="48" spans="1:15">
       <c r="A58" s="40" t="s">
         <v>699</v>
       </c>
@@ -11003,7 +11919,7 @@
       <c r="N58" s="46"/>
       <c r="O58" s="45"/>
     </row>
-    <row r="59" spans="1:15" s="48" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="59" s="48" spans="1:15">
       <c r="A59" s="40" t="s">
         <v>702</v>
       </c>
@@ -11032,7 +11948,7 @@
       <c r="N59" s="46"/>
       <c r="O59" s="45"/>
     </row>
-    <row r="60" spans="1:15" s="48" customFormat="1" ht="23.1" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.1" r="60" s="48" spans="1:15">
       <c r="A60" s="40"/>
       <c r="B60" s="41" t="s">
         <v>711</v>
@@ -11059,7 +11975,7 @@
       <c r="N60" s="46"/>
       <c r="O60" s="45"/>
     </row>
-    <row r="61" spans="1:15" s="48" customFormat="1" ht="23.1" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.1" r="61" s="48" spans="1:15">
       <c r="A61" s="40"/>
       <c r="B61" s="41" t="s">
         <v>712</v>
@@ -11086,7 +12002,7 @@
       <c r="N61" s="46"/>
       <c r="O61" s="45"/>
     </row>
-    <row r="62" spans="1:15" s="48" customFormat="1" ht="23.1" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.1" r="62" s="48" spans="1:15">
       <c r="A62" s="40"/>
       <c r="B62" s="41"/>
       <c r="C62" s="42" t="s">
@@ -11111,7 +12027,7 @@
       <c r="N62" s="46"/>
       <c r="O62" s="45"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="21"/>
@@ -11128,7 +12044,7 @@
       <c r="N63" s="19"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="21"/>
@@ -11145,7 +12061,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="21"/>
@@ -11162,7 +12078,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="21"/>
@@ -11179,7 +12095,7 @@
       <c r="N66" s="19"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="21"/>
@@ -11196,7 +12112,7 @@
       <c r="N67" s="19"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="21"/>
@@ -11213,7 +12129,7 @@
       <c r="N68" s="19"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="21"/>
@@ -11230,7 +12146,7 @@
       <c r="N69" s="19"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="21"/>
@@ -11248,7 +12164,7 @@
       <c r="O70" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11256,47 +12172,47 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:N7">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4 N8:N57 N63:N70">
-    <cfRule type="beginsWith" dxfId="5" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58:N62">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C55 C57:C70" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C55 C57:C70" type="list" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D55 D57:D70" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D55 D57:D70" type="list" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -24,13 +24,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,22 +50,22 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="791">
   <si>
     <t>target</t>
   </si>
@@ -3429,13 +3429,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="53">
+  <fonts count="70">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,8 +3778,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3790,6 +3903,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4108,7 +4357,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4365,55 +4614,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="38" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5001,7 +5301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5092,24 +5392,21 @@
         <v>726</v>
       </c>
       <c r="AA1" t="s">
-        <v>736</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5142,7 +5439,7 @@
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>790</v>
       </c>
       <c r="K2" t="s">
         <v>724</v>
@@ -5193,24 +5490,21 @@
         <v>730</v>
       </c>
       <c r="AA2" t="s">
-        <v>744</v>
+        <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5240,7 +5534,7 @@
         <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>68</v>
@@ -5285,24 +5579,21 @@
         <v>731</v>
       </c>
       <c r="AA3" t="s">
-        <v>745</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5329,7 +5620,7 @@
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
         <v>94</v>
@@ -5374,24 +5665,21 @@
         <v>732</v>
       </c>
       <c r="AA4" t="s">
-        <v>746</v>
+        <v>107</v>
       </c>
       <c r="AB4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5418,7 +5706,7 @@
         <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
         <v>119</v>
@@ -5451,24 +5739,21 @@
         <v>128</v>
       </c>
       <c r="AA5" t="s">
-        <v>747</v>
+        <v>129</v>
       </c>
       <c r="AB5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC5" t="s">
-        <v>130</v>
+        <v>720</v>
       </c>
       <c r="AD5" t="s">
-        <v>720</v>
+        <v>132</v>
       </c>
       <c r="AE5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5495,7 +5780,7 @@
         <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
         <v>725</v>
@@ -5525,24 +5810,21 @@
         <v>150</v>
       </c>
       <c r="AA6" t="s">
-        <v>748</v>
+        <v>151</v>
       </c>
       <c r="AB6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC6" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AD6" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="AE6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5562,6 +5844,9 @@
       <c r="I7" t="s">
         <v>160</v>
       </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
       <c r="K7" t="s">
         <v>142</v>
       </c>
@@ -5590,24 +5875,21 @@
         <v>167</v>
       </c>
       <c r="AA7" t="s">
-        <v>749</v>
+        <v>168</v>
       </c>
       <c r="AB7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="AD7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AE7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5655,24 +5937,21 @@
         <v>184</v>
       </c>
       <c r="AA8" t="s">
-        <v>750</v>
+        <v>185</v>
       </c>
       <c r="AB8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AD8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AE8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5717,18 +5996,15 @@
         <v>201</v>
       </c>
       <c r="AA9" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB9" t="s">
         <v>202</v>
       </c>
+      <c r="AC9" t="s">
+        <v>187</v>
+      </c>
       <c r="AD9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE9" t="s">
         <v>203</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5764,18 +6040,15 @@
         <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>752</v>
-      </c>
-      <c r="AB10" t="s">
         <v>213</v>
       </c>
+      <c r="AC10" t="s">
+        <v>721</v>
+      </c>
       <c r="AD10" t="s">
-        <v>721</v>
-      </c>
-      <c r="AE10" t="s">
         <v>214</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5784,7 +6057,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>789</v>
       </c>
       <c r="H11" t="s">
         <v>217</v>
@@ -5808,15 +6081,12 @@
         <v>743</v>
       </c>
       <c r="AA11" t="s">
-        <v>753</v>
-      </c>
-      <c r="AB11" t="s">
         <v>224</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>225</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5825,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H12" t="s">
         <v>228</v>
@@ -5849,15 +6119,12 @@
         <v>223</v>
       </c>
       <c r="AA12" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB12" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5866,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>238</v>
@@ -5890,15 +6157,12 @@
         <v>234</v>
       </c>
       <c r="AA13" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB13" t="s">
         <v>244</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>245</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5907,7 +6171,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
@@ -5928,15 +6192,12 @@
         <v>713</v>
       </c>
       <c r="AA14" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB14" t="s">
         <v>254</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>255</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5945,7 +6206,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
         <v>258</v>
@@ -5966,15 +6227,12 @@
         <v>243</v>
       </c>
       <c r="AA15" t="s">
-        <v>757</v>
-      </c>
-      <c r="AB15" t="s">
         <v>733</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>264</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5983,7 +6241,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
         <v>267</v>
@@ -6004,15 +6262,12 @@
         <v>253</v>
       </c>
       <c r="AA16" t="s">
-        <v>758</v>
-      </c>
-      <c r="AB16" t="s">
         <v>714</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>273</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6021,7 +6276,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
         <v>276</v>
@@ -6036,15 +6291,12 @@
         <v>262</v>
       </c>
       <c r="AA17" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB17" t="s">
         <v>263</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>280</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6053,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H18" t="s">
         <v>283</v>
@@ -6068,12 +6320,9 @@
         <v>271</v>
       </c>
       <c r="AA18" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB18" t="s">
         <v>272</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6082,7 +6331,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>737</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -6091,12 +6340,9 @@
         <v>290</v>
       </c>
       <c r="AA19" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB19" t="s">
         <v>279</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6105,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -6114,12 +6360,9 @@
         <v>295</v>
       </c>
       <c r="AA20" t="s">
-        <v>762</v>
-      </c>
-      <c r="AB20" t="s">
         <v>286</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6128,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -6137,12 +6380,9 @@
         <v>300</v>
       </c>
       <c r="AA21" t="s">
-        <v>763</v>
-      </c>
-      <c r="AB21" t="s">
         <v>291</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6151,7 +6391,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>739</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -6160,12 +6400,9 @@
         <v>305</v>
       </c>
       <c r="AA22" t="s">
-        <v>764</v>
-      </c>
-      <c r="AB22" t="s">
         <v>296</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6174,7 +6411,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -6183,12 +6420,9 @@
         <v>310</v>
       </c>
       <c r="AA23" t="s">
-        <v>765</v>
-      </c>
-      <c r="AB23" t="s">
         <v>301</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6197,7 +6431,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -6206,12 +6440,9 @@
         <v>315</v>
       </c>
       <c r="AA24" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB24" t="s">
         <v>306</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6220,7 +6451,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>740</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -6229,12 +6460,9 @@
         <v>320</v>
       </c>
       <c r="AA25" t="s">
-        <v>767</v>
-      </c>
-      <c r="AB25" t="s">
         <v>311</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6243,7 +6471,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>303</v>
+        <v>740</v>
       </c>
       <c r="H26" t="s">
         <v>324</v>
@@ -6252,21 +6480,18 @@
         <v>742</v>
       </c>
       <c r="AA26" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB26" t="s">
         <v>316</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>736</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
         <v>329</v>
@@ -6275,21 +6500,18 @@
         <v>325</v>
       </c>
       <c r="AA27" t="s">
-        <v>769</v>
-      </c>
-      <c r="AB27" t="s">
         <v>321</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H28" t="s">
         <v>334</v>
@@ -6298,18 +6520,15 @@
         <v>330</v>
       </c>
       <c r="AA28" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
         <v>338</v>
@@ -6318,18 +6537,15 @@
         <v>335</v>
       </c>
       <c r="AA29" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB29" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H30" t="s">
         <v>342</v>
@@ -6338,18 +6554,15 @@
         <v>339</v>
       </c>
       <c r="AA30" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
         <v>346</v>
@@ -6358,187 +6571,163 @@
         <v>343</v>
       </c>
       <c r="AA31" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB31" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H32" t="s">
         <v>349</v>
       </c>
       <c r="AA32" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB32" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H33" t="s">
         <v>352</v>
       </c>
       <c r="AA33" t="s">
-        <v>775</v>
-      </c>
-      <c r="AB33" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H34" t="s">
         <v>355</v>
       </c>
       <c r="AA34" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB34" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H35" t="s">
         <v>358</v>
       </c>
       <c r="AA35" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB35" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H36" t="s">
         <v>361</v>
       </c>
       <c r="AA36" t="s">
-        <v>778</v>
-      </c>
-      <c r="AB36" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H37" t="s">
         <v>364</v>
       </c>
       <c r="AA37" t="s">
-        <v>779</v>
-      </c>
-      <c r="AB37" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H38" t="s">
         <v>367</v>
       </c>
       <c r="AA38" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB38" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H39" t="s">
         <v>370</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H40" t="s">
         <v>372</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H41" t="s">
         <v>374</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H42" t="s">
         <v>376</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H43" t="s">
         <v>378</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>741</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
         <v>380</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>741</v>
+      </c>
       <c r="H45" t="s">
         <v>382</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6546,7 +6735,7 @@
       <c r="H46" t="s">
         <v>384</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>381</v>
       </c>
     </row>
@@ -6554,7 +6743,7 @@
       <c r="H47" t="s">
         <v>386</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6562,7 +6751,7 @@
       <c r="H48" t="s">
         <v>388</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6570,7 +6759,7 @@
       <c r="H49" t="s">
         <v>390</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6578,7 +6767,7 @@
       <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6586,7 +6775,7 @@
       <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6594,7 +6783,7 @@
       <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6602,7 +6791,7 @@
       <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6610,7 +6799,7 @@
       <c r="H54" t="s">
         <v>399</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6618,7 +6807,7 @@
       <c r="H55" t="s">
         <v>401</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6626,7 +6815,7 @@
       <c r="H56" t="s">
         <v>403</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6634,7 +6823,7 @@
       <c r="H57" t="s">
         <v>405</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6642,7 +6831,7 @@
       <c r="H58" t="s">
         <v>407</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6650,7 +6839,7 @@
       <c r="H59" t="s">
         <v>409</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6658,7 +6847,7 @@
       <c r="H60" t="s">
         <v>411</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6666,7 +6855,7 @@
       <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6674,7 +6863,7 @@
       <c r="H62" t="s">
         <v>415</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6682,7 +6871,7 @@
       <c r="H63" t="s">
         <v>417</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6690,7 +6879,7 @@
       <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6698,7 +6887,7 @@
       <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6706,7 +6895,7 @@
       <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6714,7 +6903,7 @@
       <c r="H67" t="s">
         <v>425</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6722,7 +6911,7 @@
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6730,7 +6919,7 @@
       <c r="H69" t="s">
         <v>429</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6738,7 +6927,7 @@
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6746,7 +6935,7 @@
       <c r="H71" t="s">
         <v>433</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6754,7 +6943,7 @@
       <c r="H72" t="s">
         <v>435</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6762,7 +6951,7 @@
       <c r="H73" t="s">
         <v>437</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6770,7 +6959,7 @@
       <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6778,7 +6967,7 @@
       <c r="H75" t="s">
         <v>441</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6786,7 +6975,7 @@
       <c r="H76" t="s">
         <v>443</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6794,7 +6983,7 @@
       <c r="H77" t="s">
         <v>445</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6802,7 +6991,7 @@
       <c r="H78" t="s">
         <v>447</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6810,7 +6999,7 @@
       <c r="H79" t="s">
         <v>449</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>781</v>
       </c>
     </row>
@@ -6818,7 +7007,7 @@
       <c r="H80" t="s">
         <v>451</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6826,7 +7015,7 @@
       <c r="H81" t="s">
         <v>453</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6834,7 +7023,7 @@
       <c r="H82" t="s">
         <v>455</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6842,7 +7031,7 @@
       <c r="H83" t="s">
         <v>457</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6850,7 +7039,7 @@
       <c r="H84" t="s">
         <v>459</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6858,7 +7047,7 @@
       <c r="H85" t="s">
         <v>461</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6866,7 +7055,7 @@
       <c r="H86" t="s">
         <v>463</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6874,7 +7063,7 @@
       <c r="H87" t="s">
         <v>465</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6882,7 +7071,7 @@
       <c r="H88" t="s">
         <v>467</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6890,7 +7079,7 @@
       <c r="H89" t="s">
         <v>469</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6898,7 +7087,7 @@
       <c r="H90" t="s">
         <v>471</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6906,7 +7095,7 @@
       <c r="H91" t="s">
         <v>473</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6914,7 +7103,7 @@
       <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>694</v>
       </c>
     </row>
@@ -6922,7 +7111,7 @@
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6930,7 +7119,7 @@
       <c r="H94" t="s">
         <v>479</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6938,7 +7127,7 @@
       <c r="H95" t="s">
         <v>481</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6946,7 +7135,7 @@
       <c r="H96" t="s">
         <v>483</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6954,7 +7143,7 @@
       <c r="H97" t="s">
         <v>485</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6962,272 +7151,272 @@
       <c r="H98" t="s">
         <v>487</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>788</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="791">
   <si>
     <t>target</t>
   </si>
@@ -3441,7 +3441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="70">
+  <fonts count="104">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3885,8 +3885,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3903,6 +4117,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4357,7 +4843,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4665,55 +5151,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="55" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="56" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="72" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -32,12 +32,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="795">
   <si>
     <t>target</t>
   </si>
@@ -3435,13 +3435,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="104">
+  <fonts count="138">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4099,8 +4111,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4117,6 +4343,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4843,7 +5341,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5253,55 +5751,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6048,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>792</v>
       </c>
       <c r="R2" t="s">
         <v>46</v>
@@ -6142,6 +6742,9 @@
       <c r="P3" t="s">
         <v>73</v>
       </c>
+      <c r="Q3" t="s">
+        <v>793</v>
+      </c>
       <c r="R3" t="s">
         <v>74</v>
       </c>
@@ -6228,6 +6831,9 @@
       <c r="P4" t="s">
         <v>99</v>
       </c>
+      <c r="Q4" t="s">
+        <v>794</v>
+      </c>
       <c r="R4" t="s">
         <v>100</v>
       </c>
@@ -6439,7 +7045,7 @@
         <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>791</v>
       </c>
       <c r="N7" t="s">
         <v>40</v>
@@ -6501,7 +7107,7 @@
         <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>179</v>
@@ -6560,7 +7166,7 @@
         <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
         <v>196</v>
@@ -6610,7 +7216,7 @@
         <v>722</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
         <v>208</v>
@@ -6654,7 +7260,7 @@
         <v>723</v>
       </c>
       <c r="L11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N11" t="s">
         <v>220</v>
@@ -6692,7 +7298,7 @@
         <v>206</v>
       </c>
       <c r="L12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
         <v>231</v>
@@ -6730,7 +7336,7 @@
         <v>218</v>
       </c>
       <c r="L13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N13" t="s">
         <v>241</v>
@@ -6768,7 +7374,7 @@
         <v>229</v>
       </c>
       <c r="L14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -6803,7 +7409,7 @@
         <v>239</v>
       </c>
       <c r="L15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
         <v>260</v>
@@ -6838,7 +7444,7 @@
         <v>249</v>
       </c>
       <c r="L16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
         <v>269</v>
@@ -6870,7 +7476,7 @@
         <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N17" t="s">
         <v>278</v>
@@ -6899,7 +7505,7 @@
         <v>283</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N18" t="s">
         <v>285</v>
@@ -6925,7 +7531,7 @@
         <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AA19" t="s">
         <v>279</v>
@@ -6945,7 +7551,7 @@
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AA20" t="s">
         <v>286</v>
@@ -6965,7 +7571,7 @@
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AA21" t="s">
         <v>291</v>
@@ -6985,7 +7591,7 @@
         <v>304</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AA22" t="s">
         <v>296</v>
@@ -7005,7 +7611,7 @@
         <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AA23" t="s">
         <v>301</v>
@@ -7025,7 +7631,7 @@
         <v>314</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AA24" t="s">
         <v>306</v>
@@ -7045,7 +7651,7 @@
         <v>319</v>
       </c>
       <c r="L25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AA25" t="s">
         <v>311</v>
@@ -7065,7 +7671,7 @@
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>742</v>
+        <v>320</v>
       </c>
       <c r="AA26" t="s">
         <v>316</v>
@@ -7085,7 +7691,7 @@
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>325</v>
+        <v>742</v>
       </c>
       <c r="AA27" t="s">
         <v>321</v>
@@ -7105,7 +7711,7 @@
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA28" t="s">
         <v>326</v>
@@ -7122,7 +7728,7 @@
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA29" t="s">
         <v>331</v>
@@ -7139,7 +7745,7 @@
         <v>342</v>
       </c>
       <c r="L30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA30" t="s">
         <v>336</v>
@@ -7156,7 +7762,7 @@
         <v>346</v>
       </c>
       <c r="L31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA31" t="s">
         <v>340</v>
@@ -7171,6 +7777,9 @@
       </c>
       <c r="H32" t="s">
         <v>349</v>
+      </c>
+      <c r="L32" t="s">
+        <v>343</v>
       </c>
       <c r="AA32" t="s">
         <v>344</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -37,12 +37,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="801">
   <si>
     <t>target</t>
   </si>
@@ -3447,13 +3447,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="138">
+  <fonts count="155">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4325,8 +4343,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4343,6 +4468,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5341,7 +5602,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5853,55 +6114,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6648,7 +6960,7 @@
         <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="R2" t="s">
         <v>46</v>
@@ -6743,7 +7055,7 @@
         <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="R3" t="s">
         <v>74</v>
@@ -6832,7 +7144,7 @@
         <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
         <v>100</v>
@@ -6914,6 +7226,9 @@
       <c r="O5" t="s">
         <v>122</v>
       </c>
+      <c r="Q5" t="s">
+        <v>797</v>
+      </c>
       <c r="R5" t="s">
         <v>123</v>
       </c>
@@ -7348,7 +7663,7 @@
         <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>234</v>
+        <v>798</v>
       </c>
       <c r="AA13" t="s">
         <v>244</v>
@@ -7383,7 +7698,7 @@
         <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>713</v>
+        <v>234</v>
       </c>
       <c r="AA14" t="s">
         <v>254</v>
@@ -7418,7 +7733,7 @@
         <v>261</v>
       </c>
       <c r="S15" t="s">
-        <v>243</v>
+        <v>713</v>
       </c>
       <c r="AA15" t="s">
         <v>733</v>
@@ -7453,7 +7768,7 @@
         <v>270</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AA16" t="s">
         <v>714</v>
@@ -7482,7 +7797,7 @@
         <v>278</v>
       </c>
       <c r="S17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA17" t="s">
         <v>263</v>
@@ -7511,7 +7826,7 @@
         <v>285</v>
       </c>
       <c r="S18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA18" t="s">
         <v>272</v>
@@ -7533,6 +7848,9 @@
       <c r="L19" t="s">
         <v>284</v>
       </c>
+      <c r="S19" t="s">
+        <v>799</v>
+      </c>
       <c r="AA19" t="s">
         <v>279</v>
       </c>
@@ -7553,6 +7871,9 @@
       <c r="L20" t="s">
         <v>290</v>
       </c>
+      <c r="S20" t="s">
+        <v>271</v>
+      </c>
       <c r="AA20" t="s">
         <v>286</v>
       </c>
@@ -7572,6 +7893,9 @@
       </c>
       <c r="L21" t="s">
         <v>295</v>
+      </c>
+      <c r="S21" t="s">
+        <v>800</v>
       </c>
       <c r="AA21" t="s">
         <v>291</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -24,12 +24,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -50,22 +50,24 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6621" uniqueCount="838">
   <si>
     <t>target</t>
   </si>
@@ -3465,13 +3467,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155">
+  <fonts count="172">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4450,8 +4563,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4468,6 +4688,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5602,7 +5958,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6214,6 +6570,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="154" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6801,7 +7208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6901,12 +7308,18 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6999,12 +7412,18 @@
         <v>56</v>
       </c>
       <c r="AD2" t="s">
+        <v>827</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>830</v>
+      </c>
+      <c r="AF2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7091,12 +7510,18 @@
         <v>83</v>
       </c>
       <c r="AD3" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>831</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7180,12 +7605,18 @@
         <v>109</v>
       </c>
       <c r="AD4" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7256,13 +7687,16 @@
       <c r="AC5" t="s">
         <v>720</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>833</v>
+      </c>
+      <c r="AF5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7327,13 +7761,16 @@
       <c r="AC6" t="s">
         <v>131</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AF6" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>155</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7392,13 +7829,16 @@
       <c r="AC7" t="s">
         <v>153</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>835</v>
+      </c>
+      <c r="AF7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7416,7 +7856,7 @@
         <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>823</v>
       </c>
       <c r="K8" t="s">
         <v>161</v>
@@ -7454,13 +7894,16 @@
       <c r="AC8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>836</v>
+      </c>
+      <c r="AF8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7478,7 +7921,7 @@
         <v>193</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
         <v>178</v>
@@ -7510,10 +7953,13 @@
       <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF9" t="s">
         <v>203</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7528,7 +7974,7 @@
         <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>722</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
         <v>195</v>
@@ -7554,10 +8000,10 @@
       <c r="AC10" t="s">
         <v>721</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>214</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7572,7 +8018,7 @@
         <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L11" t="s">
         <v>207</v>
@@ -7592,10 +8038,10 @@
       <c r="AA11" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>225</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7610,7 +8056,7 @@
         <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>723</v>
       </c>
       <c r="L12" t="s">
         <v>219</v>
@@ -7630,10 +8076,10 @@
       <c r="AA12" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>236</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7648,7 +8094,7 @@
         <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -7668,10 +8114,10 @@
       <c r="AA13" t="s">
         <v>244</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>245</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7686,7 +8132,7 @@
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -7703,10 +8149,10 @@
       <c r="AA14" t="s">
         <v>254</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>255</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7721,7 +8167,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L15" t="s">
         <v>250</v>
@@ -7738,10 +8184,10 @@
       <c r="AA15" t="s">
         <v>733</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>264</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7756,7 +8202,7 @@
         <v>267</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L16" t="s">
         <v>259</v>
@@ -7773,10 +8219,10 @@
       <c r="AA16" t="s">
         <v>714</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>273</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7790,6 +8236,9 @@
       <c r="H17" t="s">
         <v>276</v>
       </c>
+      <c r="I17" t="s">
+        <v>249</v>
+      </c>
       <c r="L17" t="s">
         <v>268</v>
       </c>
@@ -7802,10 +8251,10 @@
       <c r="AA17" t="s">
         <v>263</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>280</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7819,6 +8268,9 @@
       <c r="H18" t="s">
         <v>283</v>
       </c>
+      <c r="I18" t="s">
+        <v>824</v>
+      </c>
       <c r="L18" t="s">
         <v>277</v>
       </c>
@@ -7831,7 +8283,7 @@
       <c r="AA18" t="s">
         <v>272</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7840,7 +8292,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>803</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -7854,7 +8306,7 @@
       <c r="AA19" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7863,7 +8315,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>737</v>
+        <v>804</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -7877,7 +8329,7 @@
       <c r="AA20" t="s">
         <v>286</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7886,7 +8338,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>738</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -7900,7 +8352,7 @@
       <c r="AA21" t="s">
         <v>291</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7909,7 +8361,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -7920,7 +8372,7 @@
       <c r="AA22" t="s">
         <v>296</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7929,7 +8381,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>738</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -7940,7 +8392,7 @@
       <c r="AA23" t="s">
         <v>301</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7949,7 +8401,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>739</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -7960,7 +8412,7 @@
       <c r="AA24" t="s">
         <v>306</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7969,7 +8421,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -7980,7 +8432,7 @@
       <c r="AA25" t="s">
         <v>311</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7989,18 +8441,18 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>740</v>
+        <v>293</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>805</v>
       </c>
       <c r="L26" t="s">
         <v>320</v>
       </c>
       <c r="AA26" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH26" t="s">
         <v>327</v>
       </c>
     </row>
@@ -8009,18 +8461,18 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>806</v>
       </c>
       <c r="L27" t="s">
         <v>742</v>
       </c>
       <c r="AA27" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8029,16 +8481,16 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>740</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L28" t="s">
         <v>325</v>
       </c>
       <c r="AA28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29">
@@ -8046,898 +8498,959 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s">
         <v>330</v>
       </c>
       <c r="AA29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>801</v>
       </c>
       <c r="F30" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s">
         <v>335</v>
       </c>
       <c r="AA30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>802</v>
       </c>
       <c r="F31" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s">
         <v>339</v>
       </c>
       <c r="AA31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L32" t="s">
         <v>343</v>
       </c>
       <c r="AA32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>323</v>
+      </c>
+      <c r="H33" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA33" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H33" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA34" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>337</v>
-      </c>
-      <c r="H34" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AA35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H36" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AA36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H37" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AA37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H38" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AA38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H39" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AA39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H40" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AA40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AA41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AA42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H43" t="s">
-        <v>378</v>
+        <v>807</v>
       </c>
       <c r="AA43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H44" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AA44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H45" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="H46" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>741</v>
       </c>
-      <c r="H45" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA47" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AA49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AA50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AA51" t="s">
-        <v>734</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AA52" t="s">
-        <v>392</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AA53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>399</v>
+        <v>808</v>
       </c>
       <c r="AA54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>401</v>
+        <v>809</v>
       </c>
       <c r="AA55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>403</v>
+        <v>810</v>
       </c>
       <c r="AA56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>405</v>
+        <v>811</v>
       </c>
       <c r="AA57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AA58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AA59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AA61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AA62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AA63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AA64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>425</v>
+        <v>812</v>
       </c>
       <c r="AA67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>427</v>
+        <v>813</v>
       </c>
       <c r="AA68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>429</v>
+        <v>814</v>
       </c>
       <c r="AA69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AA70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>433</v>
+        <v>815</v>
       </c>
       <c r="AA71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>435</v>
+        <v>816</v>
       </c>
       <c r="AA72" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AA73" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AA74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AA75" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AA76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AA77" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AA78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AA79" t="s">
-        <v>781</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AA80" t="s">
-        <v>446</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AA81" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AA82" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AA83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>459</v>
+        <v>817</v>
       </c>
       <c r="AA84" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>461</v>
+        <v>818</v>
       </c>
       <c r="AA85" t="s">
-        <v>456</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AA86" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA87" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AA88" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AA89" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>471</v>
+        <v>819</v>
       </c>
       <c r="AA90" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>473</v>
+        <v>820</v>
       </c>
       <c r="AA91" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="AA92" t="s">
-        <v>694</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AA93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AA94" t="s">
-        <v>472</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AA95" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AA96" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AA97" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>487</v>
       </c>
-      <c r="AA98" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>498</v>
+        <v>715</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>782</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>783</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>500</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>501</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>716</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>507</v>
+        <v>716</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>717</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>509</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>718</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>515</v>
+        <v>718</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>735</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>518</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>784</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>719</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>524</v>
+        <v>784</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>525</v>
+        <v>719</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>785</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>786</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>788</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json_expression.xlsx
@@ -25,49 +25,52 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6621" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7402" uniqueCount="924">
   <si>
     <t>target</t>
   </si>
@@ -3578,13 +3581,271 @@
   <si>
     <t>removeProtection(file)</t>
   </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="172">
+  <fonts count="189">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4670,8 +4931,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4688,6 +5056,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5958,7 +6462,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6521,106 +7025,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7208,7 +7763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7239,87 +7794,99 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>839</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>840</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>726</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>801</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>802</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7343,87 +7910,99 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>841</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>790</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>724</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>795</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>863</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>47</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>728</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>730</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>919</v>
+      </c>
+      <c r="AI2" t="s">
         <v>830</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7444,84 +8023,96 @@
         <v>63</v>
       </c>
       <c r="G3" t="s">
+        <v>842</v>
+      </c>
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
       <c r="M3" t="s">
+        <v>849</v>
+      </c>
+      <c r="N3" t="s">
+        <v>850</v>
+      </c>
+      <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>71</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>72</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>796</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>864</v>
+      </c>
+      <c r="U3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>75</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>729</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>77</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>78</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>731</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE3" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>920</v>
+      </c>
+      <c r="AI3" t="s">
         <v>831</v>
       </c>
-      <c r="AF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AK3" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7539,84 +8130,96 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>843</v>
+      </c>
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
       <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
         <v>96</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>97</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>98</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>865</v>
+      </c>
+      <c r="U4" t="s">
         <v>100</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>101</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>103</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>104</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>105</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>732</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE4" t="s">
         <v>107</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AI4" t="s">
         <v>832</v>
       </c>
-      <c r="AF4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7634,69 +8237,84 @@
         <v>114</v>
       </c>
       <c r="G5" t="s">
+        <v>844</v>
+      </c>
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>93</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>119</v>
       </c>
-      <c r="L5" t="s">
-        <v>120</v>
+      <c r="M5" t="s">
+        <v>95</v>
       </c>
       <c r="N5" t="s">
+        <v>851</v>
+      </c>
+      <c r="P5" t="s">
         <v>121</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>797</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>733</v>
+      </c>
+      <c r="U5" t="s">
         <v>123</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>124</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>76</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>126</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>127</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>128</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE5" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>720</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI5" t="s">
         <v>833</v>
       </c>
-      <c r="AF5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7714,69 +8332,84 @@
         <v>137</v>
       </c>
       <c r="G6" t="s">
+        <v>845</v>
+      </c>
+      <c r="H6" t="s">
         <v>138</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>725</v>
       </c>
-      <c r="L6" t="s">
-        <v>143</v>
+      <c r="M6" t="s">
+        <v>120</v>
       </c>
       <c r="N6" t="s">
+        <v>852</v>
+      </c>
+      <c r="P6" t="s">
         <v>144</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>145</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>714</v>
+      </c>
+      <c r="U6" t="s">
         <v>146</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>147</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>149</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE6" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>131</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AI6" t="s">
         <v>834</v>
       </c>
-      <c r="AF6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK6" t="s">
         <v>155</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>838</v>
       </c>
       <c r="B7" t="s">
         <v>157</v>
@@ -7784,67 +8417,79 @@
       <c r="F7" t="s">
         <v>158</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>846</v>
+      </c>
+      <c r="I7" t="s">
         <v>159</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>160</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>142</v>
       </c>
-      <c r="L7" t="s">
-        <v>791</v>
+      <c r="M7" t="s">
+        <v>143</v>
       </c>
       <c r="N7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>162</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>263</v>
+      </c>
+      <c r="U7" t="s">
         <v>163</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>164</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>125</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>166</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>167</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE7" t="s">
         <v>168</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>169</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>153</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>835</v>
       </c>
-      <c r="AF7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>922</v>
+      </c>
+      <c r="AK7" t="s">
         <v>172</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
@@ -7852,64 +8497,73 @@
       <c r="F8" t="s">
         <v>175</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>176</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>823</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>161</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
+      <c r="M8" t="s">
+        <v>791</v>
       </c>
       <c r="N8" t="s">
+        <v>853</v>
+      </c>
+      <c r="P8" t="s">
         <v>179</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>180</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>866</v>
+      </c>
+      <c r="U8" t="s">
         <v>181</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>182</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>148</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE8" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>170</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>836</v>
       </c>
-      <c r="AF8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK8" t="s">
         <v>189</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
@@ -7917,1541 +8571,1870 @@
       <c r="F9" t="s">
         <v>192</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>193</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>177</v>
       </c>
-      <c r="L9" t="s">
-        <v>178</v>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
       <c r="N9" t="s">
+        <v>854</v>
+      </c>
+      <c r="P9" t="s">
         <v>196</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>197</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>272</v>
+      </c>
+      <c r="U9" t="s">
         <v>198</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>199</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>165</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>200</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>201</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE9" t="s">
         <v>202</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>837</v>
       </c>
-      <c r="AF9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>205</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>194</v>
       </c>
-      <c r="L10" t="s">
-        <v>195</v>
+      <c r="M10" t="s">
+        <v>178</v>
       </c>
       <c r="N10" t="s">
+        <v>855</v>
+      </c>
+      <c r="P10" t="s">
         <v>208</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>209</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>867</v>
+      </c>
+      <c r="U10" t="s">
         <v>210</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>211</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>212</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE10" t="s">
         <v>213</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>721</v>
       </c>
-      <c r="AF10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>789</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>217</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>722</v>
       </c>
-      <c r="L11" t="s">
-        <v>207</v>
+      <c r="M11" t="s">
+        <v>195</v>
       </c>
       <c r="N11" t="s">
+        <v>856</v>
+      </c>
+      <c r="P11" t="s">
         <v>220</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>221</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>279</v>
+      </c>
+      <c r="U11" t="s">
         <v>222</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>743</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE11" t="s">
         <v>224</v>
       </c>
-      <c r="AF11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>216</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>228</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>723</v>
       </c>
-      <c r="L12" t="s">
-        <v>219</v>
+      <c r="M12" t="s">
+        <v>207</v>
       </c>
       <c r="N12" t="s">
+        <v>857</v>
+      </c>
+      <c r="P12" t="s">
         <v>231</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>727</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>868</v>
+      </c>
+      <c r="U12" t="s">
         <v>233</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>223</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
-      <c r="AF12" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>227</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>238</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>206</v>
       </c>
-      <c r="L13" t="s">
-        <v>230</v>
+      <c r="M13" t="s">
+        <v>219</v>
       </c>
       <c r="N13" t="s">
+        <v>858</v>
+      </c>
+      <c r="P13" t="s">
         <v>241</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>232</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>869</v>
+      </c>
+      <c r="U13" t="s">
         <v>242</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>798</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE13" t="s">
         <v>244</v>
       </c>
-      <c r="AF13" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>839</v>
       </c>
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>248</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>218</v>
       </c>
-      <c r="L14" t="s">
-        <v>240</v>
+      <c r="M14" t="s">
+        <v>230</v>
       </c>
       <c r="N14" t="s">
+        <v>859</v>
+      </c>
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>870</v>
+      </c>
+      <c r="U14" t="s">
         <v>252</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>234</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE14" t="s">
         <v>254</v>
       </c>
-      <c r="AF14" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>923</v>
+      </c>
+      <c r="AL14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>247</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>229</v>
       </c>
-      <c r="L15" t="s">
-        <v>250</v>
+      <c r="M15" t="s">
+        <v>240</v>
       </c>
       <c r="N15" t="s">
-        <v>260</v>
-      </c>
-      <c r="R15" t="s">
+        <v>860</v>
+      </c>
+      <c r="P15" t="s">
+        <v>862</v>
+      </c>
+      <c r="T15" t="s">
+        <v>871</v>
+      </c>
+      <c r="U15" t="s">
         <v>261</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>713</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE15" t="s">
         <v>733</v>
       </c>
-      <c r="AF15" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL15" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>257</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>267</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>239</v>
       </c>
-      <c r="L16" t="s">
-        <v>259</v>
+      <c r="M16" t="s">
+        <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>269</v>
-      </c>
-      <c r="R16" t="s">
+        <v>861</v>
+      </c>
+      <c r="P16" t="s">
+        <v>260</v>
+      </c>
+      <c r="T16" t="s">
+        <v>872</v>
+      </c>
+      <c r="U16" t="s">
         <v>270</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>243</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE16" t="s">
         <v>714</v>
       </c>
-      <c r="AF16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>266</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>276</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>249</v>
       </c>
-      <c r="L17" t="s">
-        <v>268</v>
-      </c>
-      <c r="N17" t="s">
-        <v>278</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" t="s">
+        <v>269</v>
+      </c>
+      <c r="T17" t="s">
+        <v>394</v>
+      </c>
+      <c r="V17" t="s">
         <v>253</v>
       </c>
-      <c r="AA17" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>908</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL17" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>275</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>283</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>824</v>
       </c>
-      <c r="L18" t="s">
-        <v>277</v>
-      </c>
-      <c r="N18" t="s">
-        <v>285</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" t="s">
+        <v>278</v>
+      </c>
+      <c r="T18" t="s">
+        <v>873</v>
+      </c>
+      <c r="V18" t="s">
         <v>262</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE18" t="s">
         <v>272</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL18" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>803</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>289</v>
       </c>
-      <c r="L19" t="s">
-        <v>284</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>277</v>
+      </c>
+      <c r="P19" t="s">
+        <v>285</v>
+      </c>
+      <c r="T19" t="s">
+        <v>874</v>
+      </c>
+      <c r="V19" t="s">
         <v>799</v>
       </c>
-      <c r="AA19" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>909</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL19" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="F20" t="s">
         <v>804</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>294</v>
       </c>
-      <c r="L20" t="s">
-        <v>290</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>284</v>
+      </c>
+      <c r="T20" t="s">
+        <v>875</v>
+      </c>
+      <c r="V20" t="s">
         <v>271</v>
       </c>
-      <c r="AA20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL20" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>282</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>299</v>
       </c>
-      <c r="L21" t="s">
-        <v>295</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>290</v>
+      </c>
+      <c r="T21" t="s">
+        <v>876</v>
+      </c>
+      <c r="V21" t="s">
         <v>800</v>
       </c>
-      <c r="AA21" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>910</v>
+      </c>
+      <c r="AL21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>737</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>304</v>
       </c>
-      <c r="L22" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>295</v>
+      </c>
+      <c r="T22" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL22" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>738</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>309</v>
       </c>
-      <c r="L23" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="T23" t="s">
+        <v>878</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL23" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>739</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>314</v>
       </c>
-      <c r="L24" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>305</v>
+      </c>
+      <c r="T24" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL24" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>288</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>319</v>
       </c>
-      <c r="L25" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>310</v>
+      </c>
+      <c r="T25" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>293</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>805</v>
       </c>
-      <c r="L26" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>825</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T26" t="s">
+        <v>881</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>298</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>806</v>
       </c>
-      <c r="L27" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>320</v>
+      </c>
+      <c r="T27" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>740</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>324</v>
       </c>
-      <c r="L28" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>321</v>
+      <c r="M28" t="s">
+        <v>742</v>
+      </c>
+      <c r="T28" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>726</v>
       </c>
       <c r="F29" t="s">
         <v>303</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>329</v>
       </c>
-      <c r="L29" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>326</v>
+      <c r="M29" t="s">
+        <v>325</v>
+      </c>
+      <c r="T29" t="s">
+        <v>884</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>801</v>
+        <v>736</v>
       </c>
       <c r="F30" t="s">
         <v>308</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>334</v>
       </c>
-      <c r="L30" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>331</v>
+      <c r="M30" t="s">
+        <v>330</v>
+      </c>
+      <c r="T30" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>802</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
         <v>313</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>338</v>
       </c>
-      <c r="L31" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>336</v>
+      <c r="M31" t="s">
+        <v>335</v>
+      </c>
+      <c r="T31" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
         <v>318</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>342</v>
       </c>
-      <c r="L32" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>340</v>
+      <c r="M32" t="s">
+        <v>339</v>
+      </c>
+      <c r="T32" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
         <v>323</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>346</v>
       </c>
-      <c r="AA33" t="s">
-        <v>344</v>
+      <c r="M33" t="s">
+        <v>343</v>
+      </c>
+      <c r="T33" t="s">
+        <v>888</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>801</v>
       </c>
       <c r="F34" t="s">
         <v>328</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>349</v>
       </c>
-      <c r="AA34" t="s">
-        <v>347</v>
+      <c r="T34" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>802</v>
+      </c>
       <c r="F35" t="s">
         <v>333</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>352</v>
       </c>
-      <c r="AA35" t="s">
-        <v>350</v>
+      <c r="T35" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" t="s">
         <v>337</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>355</v>
       </c>
-      <c r="AA36" t="s">
-        <v>353</v>
+      <c r="T36" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
       <c r="F37" t="s">
         <v>341</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>358</v>
       </c>
-      <c r="AA37" t="s">
-        <v>356</v>
+      <c r="T37" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
       <c r="F38" t="s">
         <v>345</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>361</v>
       </c>
-      <c r="AA38" t="s">
-        <v>359</v>
+      <c r="T38" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>903</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>348</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>364</v>
       </c>
-      <c r="AA39" t="s">
-        <v>362</v>
+      <c r="T39" t="s">
+        <v>890</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>351</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>367</v>
       </c>
-      <c r="AA40" t="s">
-        <v>365</v>
+      <c r="T40" t="s">
+        <v>891</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>354</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>370</v>
       </c>
-      <c r="AA41" t="s">
-        <v>368</v>
+      <c r="T41" t="s">
+        <v>892</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>357</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>372</v>
       </c>
-      <c r="AA42" t="s">
-        <v>371</v>
+      <c r="T42" t="s">
+        <v>893</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>360</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>807</v>
       </c>
-      <c r="AA43" t="s">
-        <v>373</v>
+      <c r="T43" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>363</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>374</v>
       </c>
-      <c r="AA44" t="s">
-        <v>375</v>
+      <c r="T44" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>366</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>376</v>
       </c>
-      <c r="AA45" t="s">
-        <v>377</v>
+      <c r="T45" t="s">
+        <v>896</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>369</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>378</v>
       </c>
-      <c r="AA46" t="s">
-        <v>379</v>
+      <c r="T46" t="s">
+        <v>897</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>741</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>380</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="T48" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="T49" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="T50" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>388</v>
+      </c>
+      <c r="T51" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE51" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE52" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE53" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>808</v>
+      </c>
+      <c r="AE54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>809</v>
+      </c>
+      <c r="AE55" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE56" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE57" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>808</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE58" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>810</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE60" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>847</v>
+      </c>
+      <c r="AE61" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>848</v>
+      </c>
+      <c r="AE62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE64" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE65" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE66" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE67" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE68" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>812</v>
+      </c>
+      <c r="AE69" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE70" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>814</v>
+      </c>
+      <c r="AE71" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>812</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE72" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>813</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE73" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>814</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>816</v>
+      </c>
+      <c r="AE74" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE75" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE76" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>816</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE77" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE78" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE79" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE80" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE81" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE82" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE84" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE85" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE86" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE87" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE88" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>817</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE89" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>818</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE90" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE91" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE92" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE93" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE94" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>819</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE95" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE96" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE97" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE98" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE99" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE100" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE102" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE103" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE104" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE105" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE106" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE107" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE108" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE109" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE110" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE111" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE112" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE113" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
